--- a/SGD CPs.xlsx
+++ b/SGD CPs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G7\Desktop\New Data\CP list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UpByte\Desktop\CPPlanner\All CPs\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11B23E-2529-4368-AE49-D418BA677EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="56">
   <si>
     <t>Team Name</t>
   </si>
@@ -117,9 +118,6 @@
     <t>Haris Saleem</t>
   </si>
   <si>
-    <t>Irfan Amin</t>
-  </si>
-  <si>
     <t>Syed Irshad Hussain</t>
   </si>
   <si>
@@ -135,18 +133,6 @@
     <t>Mazhar Iqbal</t>
   </si>
   <si>
-    <t>Familly Health care</t>
-  </si>
-  <si>
-    <t>Muhammad Khawar</t>
-  </si>
-  <si>
-    <t>SGD/Mainwali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farhan Draz </t>
-  </si>
-  <si>
     <t xml:space="preserve">Reproductive </t>
   </si>
   <si>
@@ -157,9 +143,6 @@
   </si>
   <si>
     <t>Child Care</t>
-  </si>
-  <si>
-    <t>vacant</t>
   </si>
   <si>
     <t>Bone Health</t>
@@ -216,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +286,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,7 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="G54" sqref="G53:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,22 +730,24 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5904</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,16 +755,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>5904</v>
+        <v>5906</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,16 +772,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>5906</v>
+        <v>5901</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,118 +789,118 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>5901</v>
+        <v>6003</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
+      <c r="A11" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>6003</v>
+        <v>6102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>6102</v>
+        <v>6103</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
-        <v>6103</v>
+        <v>6101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6101</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6301</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>45</v>
+      <c r="A15" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="9">
-        <v>6301</v>
+        <v>6302</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="9">
-        <v>6302</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>51</v>
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6204</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,16 +908,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>6204</v>
+        <v>6205</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,176 +925,180 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>6205</v>
+        <v>6206</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1">
-        <v>6206</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
+      <c r="B19" s="9">
+        <v>6403</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9">
-        <v>6403</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>50</v>
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6203</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6201</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6202</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>6201</v>
+        <v>6404</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>6404</v>
+        <v>6402</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>43</v>
+      <c r="A25" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>6402</v>
+        <v>6104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="9">
+        <v>6106</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5903</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>40</v>
+      <c r="A28" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>6104</v>
+        <v>5908</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -1126,29 +1108,31 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="9">
-        <v>6106</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>50</v>
+      <c r="A29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6004</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5905</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
@@ -1158,488 +1142,360 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>4</v>
+      <c r="A31" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B31" s="1">
-        <v>5903</v>
+        <v>5907</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>4</v>
+      <c r="A32" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B32" s="1">
-        <v>5908</v>
+        <v>5904</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>4</v>
+      <c r="A33" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>6004</v>
+        <v>5906</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5901</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6003</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1">
-        <v>5905</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1">
-        <v>5907</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6101</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="9">
+        <v>6301</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>6302</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5904</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5906</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5901</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1">
-        <v>6003</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>54</v>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>45</v>
+      <c r="A41" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B41" s="1">
-        <v>6102</v>
+        <v>6204</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>45</v>
+      <c r="A42" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B42" s="1">
-        <v>6103</v>
+        <v>6205</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>45</v>
+      <c r="A43" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B43" s="1">
-        <v>6101</v>
+        <v>6206</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>45</v>
+      <c r="A44" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B44" s="9">
-        <v>6301</v>
+        <v>6403</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6203</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6202</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6201</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6404</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="9">
-        <v>6302</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="E48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6402</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="B50" s="1">
+        <v>6104</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="9">
+        <v>6106</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="1">
-        <v>6204</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="1">
-        <v>6205</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="1">
-        <v>6206</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="9">
-        <v>6403</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="1">
-        <v>6203</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="1">
-        <v>6202</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="1">
-        <v>6201</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="1">
-        <v>6404</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6402</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="1">
-        <v>6104</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="9">
-        <v>6106</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>52</v>
+      <c r="E51" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
